--- a/mobileaction-testcases/bug report on mobile action.xlsx
+++ b/mobileaction-testcases/bug report on mobile action.xlsx
@@ -1,12 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView xWindow="130" yWindow="550" windowWidth="18880" windowHeight="6740"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -61,9 +64,6 @@
     <t>Responsible QA:</t>
   </si>
   <si>
-    <t>Arpita Paul</t>
-  </si>
-  <si>
     <t>Test case-002</t>
   </si>
   <si>
@@ -110,42 +110,49 @@
 3. fill email option
 5. Click Create account button</t>
   </si>
+  <si>
+    <t>Safar Khan Shuvo</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="16.0"/>
+      <sz val="16"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13.0"/>
+      <sz val="13"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -155,7 +162,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -177,53 +184,53 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -413,407 +420,431 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:D86"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="E91" sqref="E91"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:4" ht="20" x14ac:dyDescent="0.4">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+    </row>
+    <row r="3" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
+      <c r="B4" s="6"/>
+    </row>
+    <row r="5" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="s">
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" ht="21.0" customHeight="1">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="2"/>
-    </row>
-    <row r="11" ht="18.75" customHeight="1">
-      <c r="A11" s="2" t="s">
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" ht="3.0" customHeight="1"/>
-    <row r="14">
-      <c r="A14" s="2" t="s">
+    <row r="13" spans="1:4" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" ht="1.5" customHeight="1"/>
-    <row r="16">
-      <c r="A16" s="2" t="s">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+    </row>
+    <row r="15" spans="1:4" ht="1.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="B16" s="6"/>
+      <c r="C16" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" ht="4.5" customHeight="1"/>
-    <row r="21">
-      <c r="A21" s="3" t="s">
+      <c r="B21" s="6"/>
+    </row>
+    <row r="22" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="s">
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+    </row>
+    <row r="23" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="6"/>
+    </row>
+    <row r="25" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+    </row>
+    <row r="32" spans="1:4" ht="1.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" s="6"/>
+      <c r="C33" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="1.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38" s="6"/>
+    </row>
+    <row r="39" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B39" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+    </row>
+    <row r="40" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="6"/>
+    </row>
+    <row r="42" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="2" t="s">
+    <row r="43" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="1.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A48" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+    </row>
+    <row r="49" spans="1:4" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A50" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B50" s="6"/>
+      <c r="C50" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="1.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A55" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B55" s="6"/>
+    </row>
+    <row r="56" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+    </row>
+    <row r="57" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="2" t="s">
+    <row r="58" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C58" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="25" ht="18.75" customHeight="1">
-      <c r="A25" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" ht="15.0" customHeight="1">
-      <c r="A26" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27" s="2"/>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="5" t="s">
+      <c r="D58" s="6"/>
+    </row>
+    <row r="59" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="2.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="2" t="s">
+    <row r="62" spans="1:4" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B63" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="30" ht="7.5" customHeight="1"/>
-    <row r="31">
-      <c r="A31" s="2" t="s">
+    <row r="64" spans="1:4" ht="2.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A65" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="32" ht="1.5" customHeight="1"/>
-    <row r="33">
-      <c r="A33" s="2" t="s">
+      <c r="B65" s="6"/>
+      <c r="C65" s="6"/>
+    </row>
+    <row r="66" spans="1:4" ht="1.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A67" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" ht="1.5" customHeight="1"/>
-    <row r="38">
-      <c r="A38" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="s">
+      <c r="B67" s="6"/>
+      <c r="C67" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D67" s="4"/>
+    </row>
+    <row r="68" spans="1:4" ht="1.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A72" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B72" s="6"/>
+    </row>
+    <row r="73" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="s">
+      <c r="B73" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+    </row>
+    <row r="74" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="2" t="s">
+    <row r="75" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C41" s="4" t="s">
+    </row>
+    <row r="76" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C76" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="43" ht="14.25" customHeight="1">
-      <c r="A43" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B44" s="2" t="s">
+      <c r="D76" s="6"/>
+    </row>
+    <row r="77" spans="1:4" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="45" ht="18.75" customHeight="1">
-      <c r="A45" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" ht="22.5" customHeight="1">
-      <c r="A46" s="2" t="s">
+    <row r="79" spans="1:4" ht="2.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B80" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="47" ht="1.5" customHeight="1"/>
-    <row r="48">
-      <c r="A48" s="2" t="s">
+    <row r="81" spans="1:3" ht="1.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A82" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="49" ht="3.75" customHeight="1"/>
-    <row r="50">
-      <c r="A50" s="2" t="s">
+      <c r="B82" s="6"/>
+      <c r="C82" s="6"/>
+    </row>
+    <row r="83" spans="1:3" ht="1.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" spans="1:3" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="6"/>
+      <c r="B84" s="6"/>
+      <c r="C84" s="4"/>
+    </row>
+    <row r="85" spans="1:3" ht="1.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A86" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="51" ht="1.5" customHeight="1"/>
-    <row r="55">
-      <c r="A55" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="60" ht="2.25" customHeight="1"/>
-    <row r="61">
-      <c r="A61" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="62" ht="3.0" customHeight="1"/>
-    <row r="63">
-      <c r="A63" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="64" ht="2.25" customHeight="1"/>
-    <row r="65">
-      <c r="A65" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="66" ht="1.5" customHeight="1"/>
-    <row r="67">
-      <c r="A67" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D67" s="8"/>
-    </row>
-    <row r="68" ht="1.5" customHeight="1"/>
-    <row r="72">
-      <c r="A72" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="2" t="s">
+      <c r="B86" s="6"/>
+      <c r="C86" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="77" ht="3.75" customHeight="1"/>
-    <row r="78">
-      <c r="A78" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="79" ht="2.25" customHeight="1"/>
-    <row r="80">
-      <c r="A80" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="81" ht="1.5" customHeight="1"/>
-    <row r="82">
-      <c r="A82" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="83" ht="1.5" customHeight="1"/>
-    <row r="84" ht="6.0" customHeight="1">
-      <c r="C84" s="8"/>
-    </row>
-    <row r="85" ht="1.5" customHeight="1"/>
-    <row r="86">
-      <c r="A86" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="A50:B50"/>
     <mergeCell ref="A82:C82"/>
     <mergeCell ref="A84:B84"/>
     <mergeCell ref="A86:B86"/>
@@ -822,14 +853,32 @@
     <mergeCell ref="A72:B72"/>
     <mergeCell ref="A67:B67"/>
     <mergeCell ref="C76:D76"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="A14:C14"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="C7"/>
-    <hyperlink r:id="rId2" ref="C24"/>
-    <hyperlink r:id="rId3" ref="C41"/>
-    <hyperlink r:id="rId4" ref="C58"/>
-    <hyperlink r:id="rId5" ref="C76"/>
+    <hyperlink ref="C7" r:id="rId1"/>
+    <hyperlink ref="C24" r:id="rId2"/>
+    <hyperlink ref="C41" r:id="rId3"/>
+    <hyperlink ref="C58" r:id="rId4"/>
+    <hyperlink ref="C76" r:id="rId5"/>
   </hyperlinks>
-  <drawing r:id="rId6"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>